--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi/Documents/Courses/CS 598 Xtrm/cs598_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21060" windowHeight="20280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="13350" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t># of Processes</t>
   </si>
@@ -45,19 +45,34 @@
   </si>
   <si>
     <t>4 GB</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Blocks</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,6 +107,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -359,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H14"/>
+  <dimension ref="B4:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -390,7 +409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -413,7 +432,7 @@
         <v>556.26</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -436,7 +455,7 @@
         <v>288.27999999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>8</v>
       </c>
@@ -459,7 +478,7 @@
         <v>156.26</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>16</v>
       </c>
@@ -482,7 +501,7 @@
         <v>104.36</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>32</v>
       </c>
@@ -505,7 +524,7 @@
         <v>68.44</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>64</v>
       </c>
@@ -528,7 +547,7 @@
         <v>51.32</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>128</v>
       </c>
@@ -551,7 +570,7 @@
         <v>42.92</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>256</v>
       </c>
@@ -574,7 +593,7 @@
         <v>38.89</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>512</v>
       </c>
@@ -597,7 +616,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1024</v>
       </c>
@@ -620,7 +639,74 @@
         <v>35.92</v>
       </c>
     </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8.2568699999999993</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16.722200000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43.908499999999997</v>
+      </c>
+      <c r="F17" s="1">
+        <v>87.164599999999993</v>
+      </c>
+      <c r="G17" s="1">
+        <v>181.65299999999999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12.5305</v>
+      </c>
+      <c r="D18" s="1">
+        <v>26.165800000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>65.439499999999995</v>
+      </c>
+      <c r="F18" s="1">
+        <v>132.0343</v>
+      </c>
+      <c r="G18" s="1">
+        <v>243.05609999999999</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi/Documents/Courses/CS 598 Xtrm/cs598_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="13350" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31260" windowHeight="20740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,55 +24,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t># of Processes</t>
   </si>
   <si>
-    <t>100 MB</t>
+    <t>100 MB (s)</t>
   </si>
   <si>
-    <t>200 MB</t>
+    <t>200 MB (s)</t>
   </si>
   <si>
-    <t>500 MB</t>
+    <t>500 MB (s)</t>
   </si>
   <si>
-    <t>1 GB</t>
+    <t>1 GB (s)</t>
   </si>
   <si>
-    <t>2 GB</t>
+    <t>2 GB (s)</t>
   </si>
   <si>
-    <t>4 GB</t>
+    <t>4 GB (s)</t>
   </si>
   <si>
-    <t>Sequential</t>
+    <t>Model 100 MB (s)</t>
   </si>
   <si>
-    <t>Blocks</t>
+    <t>Model 200 MB (s)</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>Model 500 MB (s)</t>
+  </si>
+  <si>
+    <t>Model 1 GB (s)</t>
+  </si>
+  <si>
+    <t>Model 2GB (s)</t>
+  </si>
+  <si>
+    <t>Model 4 GB (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,7 +100,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,11 +111,8858 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to sort files</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 MB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200 MB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 MB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>64.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 GB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>131.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 GB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>270.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 GB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>556.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2054464096"/>
+        <c:axId val="-2055542848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2054464096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2055542848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2055542848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2054464096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Comparison for 100 MB File</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 MB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 100 MB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.48375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.741875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3709375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18546875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.092734375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0463671875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02318359375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2058402624"/>
+        <c:axId val="-2056200848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2058402624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2056200848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2056200848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2058402624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Comparison for 200 MB file</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200 MB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 200 MB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.52375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.761875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3809375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19046875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.095234375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0476171875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2053896112"/>
+        <c:axId val="-2050276752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2053896112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2050276752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2050276752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2053896112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Comparison for 500 MB file</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 MB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>64.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 500 MB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>64.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.001250000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.000625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0003125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00015625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.500078125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2500390625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12501953125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2059709200"/>
+        <c:axId val="-2053542208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2059709200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2053542208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2053542208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2059709200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Comparison for 1 GB file</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 GB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>131.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 1 GB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$5:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>131.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.9475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.47375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.236875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1184375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.05921875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.029609375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5148046875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25740234375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2052225696"/>
+        <c:axId val="-2051534032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2052225696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2051534032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2051534032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2052225696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Comparison for 2 GB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 GB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>270.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 2GB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$5:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>270.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.5925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.79625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.898125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4490625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.22453125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.112265625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0561328125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52806640625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2050346320"/>
+        <c:axId val="-2060430976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2050346320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2060430976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2060430976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2050346320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for 4 GB File</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 GB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>556.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model 4 GB (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$5:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>556.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>278.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.5325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.76625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.383125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6915625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.34578125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.172890625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0864453125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2051734352"/>
+        <c:axId val="-2057505136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2051734352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2057505136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2057505136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2051734352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,15 +9228,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H18"/>
+  <dimension ref="B4:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -408,8 +9258,26 @@
       <c r="H4" t="s">
         <v>6</v>
       </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -431,8 +9299,32 @@
       <c r="H5">
         <v>556.26</v>
       </c>
+      <c r="J5" s="1">
+        <f>2*11.87/B5</f>
+        <v>11.87</v>
+      </c>
+      <c r="K5" s="1">
+        <f>24.38*2/B5</f>
+        <v>24.38</v>
+      </c>
+      <c r="L5" s="1">
+        <f>64.01*2/B5</f>
+        <v>64.010000000000005</v>
+      </c>
+      <c r="M5" s="1">
+        <f>131.79*2/B5</f>
+        <v>131.79</v>
+      </c>
+      <c r="N5" s="1">
+        <f>270.37*2/B5</f>
+        <v>270.37</v>
+      </c>
+      <c r="O5" s="1">
+        <f>556.26*2/B5</f>
+        <v>556.26</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -454,8 +9346,32 @@
       <c r="H6">
         <v>288.27999999999997</v>
       </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J14" si="0">2*11.87/B6</f>
+        <v>5.9349999999999996</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6:K14" si="1">24.38*2/B6</f>
+        <v>12.19</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" ref="L6:L14" si="2">64.01*2/B6</f>
+        <v>32.005000000000003</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:M14" si="3">131.79*2/B6</f>
+        <v>65.894999999999996</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:N14" si="4">270.37*2/B6</f>
+        <v>135.185</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O14" si="5">556.26*2/B6</f>
+        <v>278.13</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>8</v>
       </c>
@@ -477,8 +9393,32 @@
       <c r="H7">
         <v>156.26</v>
       </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9674999999999998</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0949999999999998</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>16.002500000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>32.947499999999998</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>67.592500000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>139.065</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>16</v>
       </c>
@@ -500,8 +9440,32 @@
       <c r="H8">
         <v>104.36</v>
       </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4837499999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0474999999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>8.0012500000000006</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>16.473749999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>33.796250000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>69.532499999999999</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>32</v>
       </c>
@@ -523,8 +9487,32 @@
       <c r="H9">
         <v>68.44</v>
       </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74187499999999995</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5237499999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0006250000000003</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2368749999999995</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>16.898125</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>34.766249999999999</v>
+      </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>64</v>
       </c>
@@ -546,8 +9534,32 @@
       <c r="H10">
         <v>51.32</v>
       </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37093749999999998</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76187499999999997</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0003125000000002</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1184374999999998</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="4"/>
+        <v>8.4490625000000001</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="5"/>
+        <v>17.383125</v>
+      </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>128</v>
       </c>
@@ -569,8 +9581,32 @@
       <c r="H11">
         <v>42.92</v>
       </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18546874999999999</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38093749999999998</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0001562500000001</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0592187499999999</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2245312500000001</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="5"/>
+        <v>8.6915624999999999</v>
+      </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>256</v>
       </c>
@@ -592,8 +9628,32 @@
       <c r="H12">
         <v>38.89</v>
       </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2734374999999994E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19046874999999999</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50007812500000004</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0296093749999999</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="4"/>
+        <v>2.112265625</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3457812499999999</v>
+      </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>512</v>
       </c>
@@ -615,8 +9675,32 @@
       <c r="H13">
         <v>36.93</v>
       </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6367187499999997E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5234374999999996E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25003906250000002</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.51480468749999997</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0561328125</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="5"/>
+        <v>2.172890625</v>
+      </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1024</v>
       </c>
@@ -638,75 +9722,33 @@
       <c r="H14">
         <v>35.92</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8.2568699999999993</v>
-      </c>
-      <c r="D17" s="1">
-        <v>16.722200000000001</v>
-      </c>
-      <c r="E17" s="1">
-        <v>43.908499999999997</v>
-      </c>
-      <c r="F17" s="1">
-        <v>87.164599999999993</v>
-      </c>
-      <c r="G17" s="1">
-        <v>181.65299999999999</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1">
-        <v>12.5305</v>
-      </c>
-      <c r="D18" s="1">
-        <v>26.165800000000001</v>
-      </c>
-      <c r="E18" s="1">
-        <v>65.439499999999995</v>
-      </c>
-      <c r="F18" s="1">
-        <v>132.0343</v>
-      </c>
-      <c r="G18" s="1">
-        <v>243.05609999999999</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3183593749999998E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7617187499999998E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12501953125000001</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25740234374999998</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.52806640625000001</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0864453125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi/Documents/Courses/CS 598 Xtrm/cs598_project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31260" windowHeight="20740" tabRatio="500"/>
+    <workbookView xWindow="30000" yWindow="-1660" windowWidth="28040" windowHeight="15880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t># of Processes</t>
   </si>
@@ -64,18 +59,68 @@
   <si>
     <t>Model 4 GB (s)</t>
   </si>
+  <si>
+    <t>100 MB</t>
+  </si>
+  <si>
+    <t>200 MB</t>
+  </si>
+  <si>
+    <t>500 MB</t>
+  </si>
+  <si>
+    <t>1 GB</t>
+  </si>
+  <si>
+    <t>2 GB</t>
+  </si>
+  <si>
+    <t>4 GB</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Blocks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,15 +139,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -169,26 +250,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -277,7 +338,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$5:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>11.87</c:v>
@@ -395,7 +456,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$5:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>24.38</c:v>
@@ -513,7 +574,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$5:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>64.01</c:v>
@@ -631,7 +692,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$5:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>131.79</c:v>
@@ -749,7 +810,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$5:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>270.37</c:v>
@@ -867,7 +928,7 @@
             <c:numRef>
               <c:f>Sheet1!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>556.26</c:v>
@@ -914,11 +975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2054464096"/>
-        <c:axId val="-2055542848"/>
+        <c:axId val="2114903976"/>
+        <c:axId val="-2136574312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2054464096"/>
+        <c:axId val="2114903976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,26 +1020,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1017,7 +1058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055542848"/>
+        <c:crossAx val="-2136574312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2055542848"/>
+        <c:axId val="-2136574312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,28 +1121,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1132,7 +1153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2054464096"/>
+        <c:crossAx val="2114903976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1262,26 +1283,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1370,7 +1371,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$5:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>11.87</c:v>
@@ -1535,11 +1536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058402624"/>
-        <c:axId val="-2056200848"/>
+        <c:axId val="2116101192"/>
+        <c:axId val="-2136557864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058402624"/>
+        <c:axId val="2116101192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,26 +1581,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1638,7 +1619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056200848"/>
+        <c:crossAx val="-2136557864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1646,7 +1627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056200848"/>
+        <c:axId val="-2136557864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,28 +1682,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1753,7 +1714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058402624"/>
+        <c:crossAx val="2116101192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1888,26 +1849,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1996,7 +1937,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$5:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>24.38</c:v>
@@ -2161,11 +2102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2053896112"/>
-        <c:axId val="-2050276752"/>
+        <c:axId val="2116114808"/>
+        <c:axId val="2116123080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2053896112"/>
+        <c:axId val="2116114808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,26 +2147,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2264,7 +2185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050276752"/>
+        <c:crossAx val="2116123080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2272,7 +2193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2050276752"/>
+        <c:axId val="2116123080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2327,28 +2248,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2379,7 +2280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2053896112"/>
+        <c:crossAx val="2116114808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,26 +2410,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2617,7 +2498,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$5:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>64.01</c:v>
@@ -2782,11 +2663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2059709200"/>
-        <c:axId val="-2053542208"/>
+        <c:axId val="2116170824"/>
+        <c:axId val="2116179224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2059709200"/>
+        <c:axId val="2116170824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,26 +2708,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2885,7 +2746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2053542208"/>
+        <c:crossAx val="2116179224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2893,7 +2754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2053542208"/>
+        <c:axId val="2116179224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,28 +2809,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3000,7 +2841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2059709200"/>
+        <c:crossAx val="2116170824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3130,26 +2971,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3238,7 +3059,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$5:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>131.79</c:v>
@@ -3403,11 +3224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2052225696"/>
-        <c:axId val="-2051534032"/>
+        <c:axId val="-2136651496"/>
+        <c:axId val="-2136671832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2052225696"/>
+        <c:axId val="-2136651496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,26 +3269,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3506,7 +3307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051534032"/>
+        <c:crossAx val="-2136671832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3514,7 +3315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2051534032"/>
+        <c:axId val="-2136671832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3569,28 +3370,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3621,7 +3402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2052225696"/>
+        <c:crossAx val="-2136651496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3751,26 +3532,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3859,7 +3620,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$5:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>270.37</c:v>
@@ -4024,11 +3785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2050346320"/>
-        <c:axId val="-2060430976"/>
+        <c:axId val="-2136699416"/>
+        <c:axId val="-2136703688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2050346320"/>
+        <c:axId val="-2136699416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4069,26 +3830,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4127,7 +3868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060430976"/>
+        <c:crossAx val="-2136703688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4135,7 +3876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060430976"/>
+        <c:axId val="-2136703688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,28 +3931,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4242,7 +3963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050346320"/>
+        <c:crossAx val="-2136699416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4377,26 +4098,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4485,7 +4186,7 @@
             <c:numRef>
               <c:f>Sheet1!$H$5:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>556.26</c:v>
@@ -4650,11 +4351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2051734352"/>
-        <c:axId val="-2057505136"/>
+        <c:axId val="2116239368"/>
+        <c:axId val="-2136729368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2051734352"/>
+        <c:axId val="2116239368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4695,26 +4396,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4753,7 +4434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057505136"/>
+        <c:crossAx val="-2136729368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4761,7 +4442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057505136"/>
+        <c:axId val="-2136729368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4816,28 +4497,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4868,7 +4529,1087 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051734352"/>
+        <c:crossAx val="2116239368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sequential</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sequential </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39.6433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.6627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219.253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>439.572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>936.702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1953.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k-way Blocks</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24.1062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.3822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.3155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.1739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>478.8566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1501.0856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2131160168"/>
+        <c:axId val="-2131151896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2131160168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2131151896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2131151896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2131160168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sequential</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sequential </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39.6433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.6627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219.253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>439.572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>936.702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1953.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k-way Blocks</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24.1062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.3822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.3155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.1739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>478.8566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1501.0856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Parallel - 1024 Processes</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Parallel - 2 Processes</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>556.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2130431400"/>
+        <c:axId val="-2130437672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2130431400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Size (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2130437672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2130437672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2130431400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8962,6 +9703,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9008,7 +9813,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -9043,7 +9848,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -9220,7 +10025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9228,34 +10033,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:O14"/>
+  <dimension ref="B3:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="3" spans="2:23">
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>200</v>
+      </c>
+      <c r="T3">
+        <v>500</v>
+      </c>
+      <c r="U3">
+        <v>1000</v>
+      </c>
+      <c r="V3">
+        <v>2000</v>
+      </c>
+      <c r="W3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="16">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J4" t="s">
@@ -9276,27 +10107,45 @@
       <c r="O4" t="s">
         <v>12</v>
       </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="5" spans="2:23" ht="16">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>11.87</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>24.38</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>64.010000000000005</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>131.79</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>270.37</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>556.26</v>
       </c>
       <c r="J5" s="1">
@@ -9324,26 +10173,26 @@
         <v>556.26</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6">
+    <row r="6" spans="2:23" ht="16">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>6.08</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>12.71</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>32.89</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>67.77</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>139.25</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>288.27999999999997</v>
       </c>
       <c r="J6" s="1">
@@ -9371,26 +10220,26 @@
         <v>278.13</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7">
+    <row r="7" spans="2:23" ht="16">
+      <c r="B7" s="2">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>3.33</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>6.84</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>17.79</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>36.909999999999997</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>75.7</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>156.26</v>
       </c>
       <c r="J7" s="1">
@@ -9418,26 +10267,26 @@
         <v>139.065</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="8" spans="2:23" ht="16">
+      <c r="B8" s="2">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>2.27</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>4.62</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>11.94</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>24.33</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>49.87</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>104.36</v>
       </c>
       <c r="J8" s="1">
@@ -9465,26 +10314,26 @@
         <v>69.532499999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="9" spans="2:23" ht="16">
+      <c r="B9" s="2">
         <v>32</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>1.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>3.1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>7.99</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>16.2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>32.93</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>68.44</v>
       </c>
       <c r="J9" s="1">
@@ -9512,26 +10361,26 @@
         <v>34.766249999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="10" spans="2:23" ht="16">
+      <c r="B10" s="2">
         <v>64</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>2.33</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>6.05</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>12.24</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>24.83</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>51.32</v>
       </c>
       <c r="J10" s="1">
@@ -9559,26 +10408,26 @@
         <v>17.383125</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11">
+    <row r="11" spans="2:23" ht="16">
+      <c r="B11" s="2">
         <v>128</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.97</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>5.07</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>10.3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>20.83</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>42.92</v>
       </c>
       <c r="J11" s="1">
@@ -9606,26 +10455,26 @@
         <v>8.6915624999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12">
+    <row r="12" spans="2:23" ht="16">
+      <c r="B12" s="2">
         <v>256</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.89</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>1.81</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>4.62</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>18.88</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>38.89</v>
       </c>
       <c r="J12" s="1">
@@ -9653,26 +10502,26 @@
         <v>4.3457812499999999</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="13" spans="2:23" ht="16">
+      <c r="B13" s="2">
         <v>512</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.85</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>1.72</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>8.8699999999999992</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>17.88</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>36.93</v>
       </c>
       <c r="J13" s="1">
@@ -9700,26 +10549,26 @@
         <v>2.172890625</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="14" spans="2:23" ht="16">
+      <c r="B14" s="2">
         <v>1024</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>0.83</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>1.68</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>4.28</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>8.64</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>17.46</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>35.92</v>
       </c>
       <c r="J14" s="1">
@@ -9747,8 +10596,60 @@
         <v>1.0864453125</v>
       </c>
     </row>
+    <row r="15" spans="2:23" ht="16">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
+        <v>39.643300000000004</v>
+      </c>
+      <c r="D15" s="4">
+        <v>81.662700000000001</v>
+      </c>
+      <c r="E15" s="4">
+        <v>219.25299999999999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>439.572</v>
+      </c>
+      <c r="G15" s="4">
+        <v>936.702</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1953.82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="16">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>24.106200000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43.382199999999997</v>
+      </c>
+      <c r="E16" s="4">
+        <v>116.3155</v>
+      </c>
+      <c r="F16" s="4">
+        <v>230.1739</v>
+      </c>
+      <c r="G16" s="4">
+        <v>478.85660000000001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1501.0856000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>